--- a/data/api_automation.xlsx
+++ b/data/api_automation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="19520" windowWidth="38400" xWindow="0" yWindow="460"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="16440" windowWidth="28800" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
+      <family val="4"/>
       <sz val="9"/>
       <scheme val="minor"/>
     </font>
@@ -85,6 +86,19 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -101,24 +115,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -137,8 +138,7 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -431,10 +431,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -446,10 +446,11 @@
     <col customWidth="1" max="5" min="5" style="5" width="10.1640625"/>
     <col customWidth="1" max="6" min="6" style="5" width="24.6640625"/>
     <col customWidth="1" max="7" min="7" style="5" width="55.6640625"/>
-    <col customWidth="1" max="8" min="8" style="5" width="46.1640625"/>
-    <col customWidth="1" max="9" min="9" style="5" width="19.83203125"/>
-    <col customWidth="1" max="157" min="10" style="5" width="8.83203125"/>
-    <col customWidth="1" max="16384" min="158" style="5" width="8.83203125"/>
+    <col customWidth="1" max="8" min="8" style="5" width="61.6640625"/>
+    <col customWidth="1" max="9" min="9" style="5" width="40"/>
+    <col customWidth="1" max="10" min="10" style="5" width="17.33203125"/>
+    <col customWidth="1" max="160" min="11" style="5" width="8.83203125"/>
+    <col customWidth="1" max="16384" min="161" style="5" width="8.83203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -535,7 +536,7 @@
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>{"mobilephone":"#login_phone1#", "pwd":"#pwd1#"}</t>
+          <t>{"mobilephone":"13342884220", "pwd":"123456"}</t>
         </is>
       </c>
       <c r="H2" s="4" t="inlineStr">
@@ -569,7 +570,7 @@
       <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="n"/>
+      <c r="B3" s="8" t="n"/>
       <c r="C3" s="7" t="inlineStr">
         <is>
           <t>手机号中包含空格</t>
@@ -621,13 +622,6 @@
       <c r="O3" s="3" t="n"/>
       <c r="P3" s="3" t="n"/>
       <c r="Q3" s="3" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>看看</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/api_automation.xlsx
+++ b/data/api_automation.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="16440" windowWidth="28800" xWindow="0" yWindow="460"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="16440" windowWidth="28800" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="register" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -37,6 +38,13 @@
       <family val="4"/>
       <sz val="9"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="4">
@@ -119,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -135,6 +143,9 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -143,7 +154,47 @@
   <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -433,8 +484,8 @@
   </sheetPr>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="78" zoomScaleNormal="70">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -445,12 +496,12 @@
     <col customWidth="1" max="4" min="4" style="5" width="12"/>
     <col customWidth="1" max="5" min="5" style="5" width="10.1640625"/>
     <col customWidth="1" max="6" min="6" style="5" width="24.6640625"/>
-    <col customWidth="1" max="7" min="7" style="5" width="55.6640625"/>
-    <col customWidth="1" max="8" min="8" style="5" width="61.6640625"/>
-    <col customWidth="1" max="9" min="9" style="5" width="40"/>
+    <col customWidth="1" max="7" min="7" style="5" width="63.5"/>
+    <col customWidth="1" max="8" min="8" style="5" width="64.83203125"/>
+    <col customWidth="1" max="9" min="9" style="5" width="63.1640625"/>
     <col customWidth="1" max="10" min="10" style="5" width="17.33203125"/>
-    <col customWidth="1" max="160" min="11" style="5" width="8.83203125"/>
-    <col customWidth="1" max="16384" min="161" style="5" width="8.83203125"/>
+    <col customWidth="1" max="173" min="11" style="5" width="8.83203125"/>
+    <col customWidth="1" max="16384" min="174" style="5" width="8.83203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -509,27 +560,27 @@
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>正常登录</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
+      <c r="D2" s="8" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E2" s="7" t="inlineStr">
+      <c r="E2" s="8" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F2" s="7" t="inlineStr">
+      <c r="F2" s="8" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
@@ -570,23 +621,23 @@
       <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="n"/>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="B3" s="9" t="n"/>
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>手机号中包含空格</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="8" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
@@ -638,4 +689,270 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="11.5"/>
+    <col customWidth="1" max="2" min="2" width="13.1640625"/>
+    <col customWidth="1" max="3" min="3" width="13.83203125"/>
+    <col customWidth="1" max="4" min="4" width="12.1640625"/>
+    <col customWidth="1" max="5" min="5" width="11.83203125"/>
+    <col customWidth="1" max="6" min="6" width="21.33203125"/>
+    <col customWidth="1" max="7" min="7" width="66.33203125"/>
+    <col customWidth="1" max="8" min="8" width="47.33203125"/>
+    <col customWidth="1" max="9" min="9" width="55.1640625"/>
+    <col customWidth="1" max="11" min="11" width="17.33203125"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="5">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>api_name</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>request_data</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>expected_data</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>server_return</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>数据库断言</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="18" r="2" s="5">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>注册</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>正常注册130</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>register</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>{'mobilephone': 'phone130', 'pwd': '1234567', 'regname': 'user1'}</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>{"status":1,  "code":"10001", "data":None, "msg":"注册成功"}</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '注册成功'}</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>数据库插入数据成功</t>
+        </is>
+      </c>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="4" t="n"/>
+      <c r="N2" s="4" t="n"/>
+      <c r="O2" s="4" t="n"/>
+      <c r="P2" s="4" t="n"/>
+      <c r="Q2" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="18" r="3">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>注册</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>正常注册131</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>register</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>{'mobilephone': 'phone131', 'pwd': '1234567', 'regname': 'user1'}</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>{"status":1,  "code":"10001", "data":None, "msg":"注册成功"}</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '注册成功'}</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>注册</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>正常注册132</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>register</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>{'mobilephone': 'phone132', 'pwd': '1234567', 'regname': 'user1'}</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>{"status":1,  "code":"10001", "data":None, "msg":"注册成功"}</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '注册成功'}</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J1">
+    <cfRule dxfId="1" operator="containsText" priority="3" text="FAIL" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J1)))</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="containsText" priority="4" text="PASS" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("PASS",J1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule dxfId="1" operator="containsText" priority="1" text="FAIL" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("FAIL",K1)))</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="containsText" priority="2" text="PASS" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("PASS",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/data/api_automation.xlsx
+++ b/data/api_automation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="16440" windowWidth="28800" xWindow="0" yWindow="460"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="16200" windowWidth="28800" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -45,6 +45,14 @@
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="4"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -107,7 +115,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -116,9 +126,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -127,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -143,6 +151,10 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -485,7 +497,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" zoomScale="78" zoomScaleNormal="70">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -500,8 +512,8 @@
     <col customWidth="1" max="8" min="8" style="5" width="64.83203125"/>
     <col customWidth="1" max="9" min="9" style="5" width="63.1640625"/>
     <col customWidth="1" max="10" min="10" style="5" width="17.33203125"/>
-    <col customWidth="1" max="174" min="11" style="5" width="8.83203125"/>
-    <col customWidth="1" max="16384" min="175" style="5" width="8.83203125"/>
+    <col customWidth="1" max="187" min="11" style="5" width="8.83203125"/>
+    <col customWidth="1" max="16384" min="188" style="5" width="8.83203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -560,49 +572,49 @@
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
       </c>
-      <c r="C2" s="8" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>正常登录</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="D2" s="10" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="E2" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="F2" s="10" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>{"mobilephone":"13342884220", "pwd":"123456"}</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
+          <t>{"mobilephone":"15815541732", "pwd":"123456"}</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>{"status":1,  "code":"10001", "data":None, "msg":"登录成功"}</t>
         </is>
       </c>
       <c r="I2" s="4" t="inlineStr">
         <is>
-          <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '登录成功'}</t>
+          <t>{'status': 0, 'code': '20111', 'data': None, 'msg': '用户名或密码错误'}</t>
         </is>
       </c>
       <c r="J2" s="4" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -621,23 +633,23 @@
       <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="n"/>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="B3" s="11" t="n"/>
+      <c r="C3" s="10" t="inlineStr">
         <is>
           <t>手机号中包含空格</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="10" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="10" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
@@ -649,7 +661,7 @@
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>{"status":0,  "code":"20111", "data":None, "msg":"用户名或密码错误"}</t>
+          <t>{'status': 0, 'code': '20111', 'data': None, 'msg': '用户名或密码错误'}</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
@@ -697,10 +709,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -710,9 +722,10 @@
     <col customWidth="1" max="3" min="3" width="19.33203125"/>
     <col customWidth="1" max="4" min="4" width="12.1640625"/>
     <col customWidth="1" max="5" min="5" width="10"/>
-    <col customWidth="1" max="6" min="6" width="19"/>
-    <col customWidth="1" max="8" min="7" width="62.1640625"/>
-    <col customWidth="1" max="9" min="9" width="55.1640625"/>
+    <col customWidth="1" max="6" min="6" width="21.1640625"/>
+    <col customWidth="1" max="7" min="7" width="72.1640625"/>
+    <col customWidth="1" max="8" min="8" width="67.1640625"/>
+    <col customWidth="1" max="9" min="9" width="63"/>
     <col customWidth="1" max="11" min="11" width="17.33203125"/>
   </cols>
   <sheetData>
@@ -782,9 +795,9 @@
           <t>注册</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>正常注册130号段</t>
+      <c r="C2" s="7" t="inlineStr">
+        <is>
+          <t>正常注册</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -804,7 +817,7 @@
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>{'mobilephone': 'phone130', 'pwd': '1234567', 'regname': 'user1'}</t>
+          <t>{'mobilephone': 'phone183', 'pwd': '1234567', 'regname': 'user1'}</t>
         </is>
       </c>
       <c r="H2" s="4" t="inlineStr">
@@ -843,9 +856,9 @@
           <t>注册</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>正常注册131号段</t>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>正常注册</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -865,7 +878,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>{'mobilephone': 'phone131', 'pwd': '1234567', 'regname': 'user1'}</t>
+          <t>{'mobilephone': 'phone185', 'pwd': '1234567', 'regname': 'user1'}</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
@@ -873,7 +886,7 @@
           <t>{"status":1,  "code":"10001", "data":None, "msg":"注册成功"}</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="8" t="inlineStr">
         <is>
           <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '注册成功'}</t>
         </is>
@@ -893,9 +906,9 @@
           <t>注册</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>正常注册132号段</t>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>正常注册</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -915,7 +928,7 @@
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
-          <t>{'mobilephone': 'phone132', 'pwd': '1234567', 'regname': 'user1'}</t>
+          <t>{'mobilephone': 'phone139', 'pwd': '1234567', 'regname': 'user1'}</t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr">
@@ -929,6 +942,56 @@
         </is>
       </c>
       <c r="J4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5">
+      <c r="A5" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>注册</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>手机号码已存在</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>register</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>/member/register</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>{'mobilephone': 'phone182', 'pwd': '1234567', 'regname': 'user2'}</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>{"status":0,  "code":"20110", "data":None, "msg":"手机号码已被注册"}</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>{'status': 0, 'code': '20110', 'data': None, 'msg': '手机号码已被注册'}</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
